--- a/trainingSet/groundTruth.xlsx
+++ b/trainingSet/groundTruth.xlsx
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +446,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
@@ -456,12 +456,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -476,7 +476,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -501,12 +501,12 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -516,7 +516,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -536,11 +536,316 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>1</v>
       </c>
     </row>

--- a/trainingSet/groundTruth.xlsx
+++ b/trainingSet/groundTruth.xlsx
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,11 +844,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trainingSet/groundTruth.xlsx
+++ b/trainingSet/groundTruth.xlsx
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,6 +844,206 @@
         <v>0</v>
       </c>
     </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
